--- a/bets.xlsx
+++ b/bets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -49,64 +49,34 @@
     <t>Amount to Buy #2</t>
   </si>
   <si>
-    <t>664bf20718641be1168cb496f3dfbc51</t>
-  </si>
-  <si>
-    <t>638dfadae7d2dc4301d74f07b5f01143</t>
-  </si>
-  <si>
-    <t>772a63e0953b9a4ff5e91d3e62f5c72b</t>
-  </si>
-  <si>
-    <t>4761634dee87336e2bbad6d55f9c1dc7</t>
-  </si>
-  <si>
-    <t>baseball_mlb</t>
-  </si>
-  <si>
-    <t>Bovada</t>
-  </si>
-  <si>
-    <t>Caesars</t>
-  </si>
-  <si>
-    <t>Unibet</t>
-  </si>
-  <si>
-    <t>BetOnline.ag</t>
-  </si>
-  <si>
-    <t>Chicago Cubs</t>
-  </si>
-  <si>
-    <t>Texas Rangers</t>
-  </si>
-  <si>
-    <t>Cleveland Guardians</t>
-  </si>
-  <si>
-    <t>Arizona Diamondbacks</t>
-  </si>
-  <si>
-    <t>WynnBET</t>
+    <t>d0a2bbf7c26026c4008203a62b2cb077</t>
+  </si>
+  <si>
+    <t>9d1d55cf36653e4d09b3fe42906e496e</t>
+  </si>
+  <si>
+    <t>basketball_nba</t>
+  </si>
+  <si>
+    <t>icehockey_nhl</t>
   </si>
   <si>
     <t>MyBookie.ag</t>
   </si>
   <si>
-    <t>PointsBet (US)</t>
-  </si>
-  <si>
-    <t>New York Mets</t>
-  </si>
-  <si>
-    <t>Washington Nationals</t>
-  </si>
-  <si>
-    <t>Houston Astros</t>
-  </si>
-  <si>
-    <t>Los Angeles Dodgers</t>
+    <t>DraftKings</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Edmonton Oilers</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers</t>
+  </si>
+  <si>
+    <t>Los Angeles Kings</t>
   </si>
 </sst>
 </file>
@@ -464,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,34 +480,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>15.3</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="C2">
-        <v>54.19</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>-454.55</v>
+      </c>
+      <c r="G2">
+        <v>94.51000000000001</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>-109.89</v>
-      </c>
-      <c r="G2">
-        <v>80.73</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J2">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="K2">
-        <v>19.27</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -545,244 +515,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>24.44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>124</v>
+      </c>
+      <c r="G3">
+        <v>55.56</v>
+      </c>
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
-        <v>8.51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>200</v>
-      </c>
-      <c r="G3">
-        <v>36.17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J3">
-        <v>-142.86</v>
+        <v>180</v>
       </c>
       <c r="K3">
-        <v>63.83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>25.61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>143</v>
-      </c>
-      <c r="G4">
-        <v>51.69</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4">
-        <v>160</v>
-      </c>
-      <c r="K4">
-        <v>48.31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>6.32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5">
-        <v>127</v>
-      </c>
-      <c r="G5">
-        <v>46.84</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5">
-        <v>100</v>
-      </c>
-      <c r="K5">
-        <v>53.16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>54.19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>-109.89</v>
-      </c>
-      <c r="G6">
-        <v>80.73</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6">
-        <v>700</v>
-      </c>
-      <c r="K6">
-        <v>19.27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>8.51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7">
-        <v>200</v>
-      </c>
-      <c r="G7">
-        <v>36.17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7">
-        <v>-142.86</v>
-      </c>
-      <c r="K7">
-        <v>63.83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>25.61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8">
-        <v>143</v>
-      </c>
-      <c r="G8">
-        <v>51.69</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8">
-        <v>160</v>
-      </c>
-      <c r="K8">
-        <v>48.31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>6.32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9">
-        <v>127</v>
-      </c>
-      <c r="G9">
-        <v>46.84</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
-      <c r="K9">
-        <v>53.16</v>
+        <v>44.44</v>
       </c>
     </row>
   </sheetData>
